--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>231752.3886660798</v>
+        <v>229050.7407635444</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12220771.51093546</v>
+        <v>12220771.51093547</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>6.396723986041543</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>81.21477241771925</v>
       </c>
     </row>
     <row r="3">
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>18.45586161088161</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>71.59042511890991</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.52242943975239</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>264.1981927189495</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>159.0184015623263</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>94.50081326185514</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>117.1666595168623</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>138.3684423428051</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>53.59543950356241</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.830884450382</v>
+        <v>11.830884450382</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.62727429151386</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>16.94002275672431</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>248.5538886272469</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>126.0437728230423</v>
+        <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436612</v>
+        <v>94.29488917436606</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036434004</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282986</v>
+        <v>30.34503645282952</v>
       </c>
       <c r="S9" t="n">
-        <v>137.178970064727</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
-        <v>225.819171215429</v>
+        <v>204.633355338062</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099065</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.2914415359382</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>13.38465568425149</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>179.1928815064324</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>315.3998342615246</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
@@ -1388,7 +1388,7 @@
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184563</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615216</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1427,13 +1427,13 @@
         <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>207.2413829513403</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530794</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>201.1066916608398</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>30.05706037504377</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>133.4811715458542</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>107.4021082756238</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833824</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>22.10695458833852</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>30.97191586387703</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.15578456998</v>
       </c>
       <c r="G28" t="n">
-        <v>123.9815576456788</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428232</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053466</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472316</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>19.91555826189114</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.282116088006</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.2614020227602</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="C2" t="n">
-        <v>583.2614020227602</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="D2" t="n">
-        <v>583.2614020227602</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="E2" t="n">
-        <v>393.8416170062753</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897905</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
         <v>80.81213159058939</v>
@@ -4337,43 +4337,43 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823981</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823981</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="U2" t="n">
-        <v>583.2614020227602</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="V2" t="n">
-        <v>583.2614020227602</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="W2" t="n">
-        <v>583.2614020227602</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="X2" t="n">
-        <v>583.2614020227602</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="Y2" t="n">
-        <v>583.2614020227602</v>
+        <v>211.3673327389938</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.6784525769738</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="C3" t="n">
-        <v>108.6784525769738</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="D3" t="n">
-        <v>108.6784525769738</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="E3" t="n">
-        <v>108.6784525769738</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="F3" t="n">
-        <v>108.6784525769738</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="G3" t="n">
-        <v>108.6784525769738</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H3" t="n">
-        <v>90.0361681215378</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264284</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264284</v>
+        <v>525.654732181024</v>
       </c>
       <c r="T3" t="n">
-        <v>487.5180226099435</v>
+        <v>525.654732181024</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099435</v>
+        <v>525.654732181024</v>
       </c>
       <c r="V3" t="n">
-        <v>298.0982375934586</v>
+        <v>336.2349471645392</v>
       </c>
       <c r="W3" t="n">
-        <v>298.0982375934586</v>
+        <v>146.8151621480545</v>
       </c>
       <c r="X3" t="n">
-        <v>298.0982375934586</v>
+        <v>146.8151621480545</v>
       </c>
       <c r="Y3" t="n">
-        <v>108.6784525769738</v>
+        <v>74.50160142188287</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>886.1202413417709</v>
+        <v>806.9249879919187</v>
       </c>
       <c r="C5" t="n">
-        <v>886.1202413417709</v>
+        <v>806.9249879919187</v>
       </c>
       <c r="D5" t="n">
-        <v>886.1202413417709</v>
+        <v>448.6592893851681</v>
       </c>
       <c r="E5" t="n">
-        <v>500.3319887435267</v>
+        <v>448.6592893851681</v>
       </c>
       <c r="F5" t="n">
-        <v>459.4002418346859</v>
+        <v>441.7137886359646</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809306</v>
+        <v>429.723147379776</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809306</v>
@@ -4592,25 +4592,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U5" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V5" t="n">
-        <v>2036.325171642784</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W5" t="n">
-        <v>2036.325171642784</v>
+        <v>1570.53007822881</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.859413381704</v>
+        <v>1197.06431996773</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.720081405893</v>
+        <v>806.9249879919187</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>755.9255995138416</v>
+        <v>299.4492115120137</v>
       </c>
       <c r="C6" t="n">
-        <v>581.4725702327146</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="D6" t="n">
-        <v>581.4725702327146</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="E6" t="n">
-        <v>422.235115227259</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="F6" t="n">
-        <v>275.700557254144</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G6" t="n">
         <v>138.8245634692599</v>
@@ -4671,25 +4671,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S6" t="n">
-        <v>1647.876886205343</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T6" t="n">
-        <v>1453.166564679319</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U6" t="n">
-        <v>1453.166564679319</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V6" t="n">
-        <v>1218.014456447576</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="W6" t="n">
-        <v>963.7770997193744</v>
+        <v>715.0610104825005</v>
       </c>
       <c r="X6" t="n">
-        <v>755.9255995138416</v>
+        <v>507.2095102769676</v>
       </c>
       <c r="Y6" t="n">
-        <v>755.9255995138416</v>
+        <v>299.4492115120137</v>
       </c>
     </row>
     <row r="7">
@@ -4747,22 +4747,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="S7" t="n">
-        <v>321.1098614248255</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="T7" t="n">
-        <v>97.50600411744904</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="U7" t="n">
-        <v>97.50600411744904</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="V7" t="n">
-        <v>97.50600411744904</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="W7" t="n">
-        <v>43.36919653809306</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="X7" t="n">
         <v>43.36919653809306</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>871.3177014231412</v>
+        <v>851.6671571886757</v>
       </c>
       <c r="C8" t="n">
-        <v>871.3177014231412</v>
+        <v>851.6671571886757</v>
       </c>
       <c r="D8" t="n">
-        <v>871.3177014231412</v>
+        <v>851.6671571886757</v>
       </c>
       <c r="E8" t="n">
-        <v>871.3177014231412</v>
+        <v>851.6671571886757</v>
       </c>
       <c r="F8" t="n">
-        <v>460.3317966335337</v>
+        <v>440.6812523990681</v>
       </c>
       <c r="G8" t="n">
-        <v>44.34100425941039</v>
+        <v>428.7308640653489</v>
       </c>
       <c r="H8" t="n">
-        <v>44.34100425941039</v>
+        <v>121.742291422556</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941039</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420286</v>
+        <v>156.8280559420296</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002218</v>
+        <v>376.1555054002242</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707894</v>
+        <v>685.1523625707937</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937543</v>
+        <v>1060.64034093755</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.8179157337</v>
+        <v>1446.817915733708</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.1391876595</v>
+        <v>1798.13918765951</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284324</v>
+        <v>2063.482764284335</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228505</v>
+        <v>2214.571993228517</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.05021297052</v>
+        <v>2217.050212970532</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.05021297052</v>
+        <v>2217.050212970532</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.05021297052</v>
+        <v>2199.939078872831</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.05021297052</v>
+        <v>1946.335134769138</v>
       </c>
       <c r="V8" t="n">
-        <v>1885.987325626949</v>
+        <v>1615.272247425567</v>
       </c>
       <c r="W8" t="n">
-        <v>1634.922791660033</v>
+        <v>1615.272247425567</v>
       </c>
       <c r="X8" t="n">
-        <v>1261.457033398953</v>
+        <v>1241.806489164487</v>
       </c>
       <c r="Y8" t="n">
-        <v>871.3177014231412</v>
+        <v>851.6671571886757</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>302.829915735924</v>
+        <v>756.6678658941383</v>
       </c>
       <c r="C9" t="n">
-        <v>302.829915735924</v>
+        <v>582.2148366130114</v>
       </c>
       <c r="D9" t="n">
-        <v>302.829915735924</v>
+        <v>582.2148366130114</v>
       </c>
       <c r="E9" t="n">
-        <v>302.829915735924</v>
+        <v>422.9773816075558</v>
       </c>
       <c r="F9" t="n">
-        <v>302.829915735924</v>
+        <v>276.4428236344408</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5129734904267</v>
+        <v>139.5883670618006</v>
       </c>
       <c r="H9" t="n">
-        <v>80.2656106880367</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941039</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113441</v>
+        <v>92.51967467113516</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154148</v>
+        <v>253.0195209154164</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572517</v>
+        <v>515.1539122572545</v>
       </c>
       <c r="M9" t="n">
-        <v>840.40925104497</v>
+        <v>840.4092510449742</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.68177573868</v>
+        <v>1188.681775738686</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074208</v>
+        <v>1485.063300074214</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566937</v>
+        <v>1703.602536566944</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257633</v>
+        <v>1799.771032257641</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285078</v>
+        <v>1769.119480285086</v>
       </c>
       <c r="S9" t="n">
-        <v>1630.554864058081</v>
+        <v>1769.119480285086</v>
       </c>
       <c r="T9" t="n">
-        <v>1435.931352611233</v>
+        <v>1574.495968838238</v>
       </c>
       <c r="U9" t="n">
-        <v>1207.831179666355</v>
+        <v>1367.795609910903</v>
       </c>
       <c r="V9" t="n">
-        <v>972.6790714346123</v>
+        <v>1132.64350167916</v>
       </c>
       <c r="W9" t="n">
-        <v>718.4417147064107</v>
+        <v>1132.64350167916</v>
       </c>
       <c r="X9" t="n">
-        <v>510.5902145008779</v>
+        <v>1132.64350167916</v>
       </c>
       <c r="Y9" t="n">
-        <v>302.829915735924</v>
+        <v>924.8832029142063</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.34100425941039</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="C10" t="n">
-        <v>44.34100425941039</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="D10" t="n">
-        <v>44.34100425941039</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="E10" t="n">
-        <v>44.34100425941039</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="F10" t="n">
-        <v>44.34100425941039</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="G10" t="n">
-        <v>44.34100425941039</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="H10" t="n">
-        <v>44.34100425941039</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="I10" t="n">
-        <v>44.34100425941039</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941039</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016674</v>
+        <v>95.74470838016751</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810348</v>
+        <v>191.4295496810362</v>
       </c>
       <c r="M10" t="n">
-        <v>295.574081842264</v>
+        <v>295.5740818422662</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091221</v>
+        <v>405.099815709125</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712697</v>
+        <v>485.9514692712731</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139701</v>
+        <v>536.072055313974</v>
       </c>
       <c r="Q10" t="n">
-        <v>514.761084908929</v>
+        <v>536.072055313974</v>
       </c>
       <c r="R10" t="n">
-        <v>514.761084908929</v>
+        <v>536.072055313974</v>
       </c>
       <c r="S10" t="n">
-        <v>514.761084908929</v>
+        <v>536.072055313974</v>
       </c>
       <c r="T10" t="n">
-        <v>514.761084908929</v>
+        <v>312.5453466918142</v>
       </c>
       <c r="U10" t="n">
-        <v>514.761084908929</v>
+        <v>299.0254924652975</v>
       </c>
       <c r="V10" t="n">
-        <v>514.761084908929</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="W10" t="n">
-        <v>225.3439148719684</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="X10" t="n">
-        <v>44.34100425941039</v>
+        <v>44.34100425941065</v>
       </c>
       <c r="Y10" t="n">
-        <v>44.34100425941039</v>
+        <v>44.34100425941065</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754456</v>
+        <v>1872.090169197694</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814045</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1195.238779417687</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="F11" t="n">
         <v>809.4505268194423</v>
@@ -5036,55 +5036,55 @@
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592068</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535295</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479993</v>
+        <v>3493.127967479994</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464059</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796034</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345376</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.02074392674</v>
+        <v>3573.020743926742</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048269</v>
+        <v>3319.52680204827</v>
       </c>
       <c r="V11" t="n">
-        <v>3319.526802048269</v>
+        <v>2988.4639147047</v>
       </c>
       <c r="W11" t="n">
-        <v>3319.526802048269</v>
+        <v>2635.695259434585</v>
       </c>
       <c r="X11" t="n">
-        <v>3110.192071794389</v>
+        <v>2262.229501173505</v>
       </c>
       <c r="Y11" t="n">
-        <v>2720.052739818578</v>
+        <v>1872.090169197694</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592068</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870411</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046652</v>
+        <v>470.7769964046653</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929965</v>
+        <v>889.4740370626168</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749524</v>
+        <v>996.457408159935</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450734</v>
+        <v>1532.266717861145</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783257</v>
+        <v>2000.207762193668</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>691.3935293364668</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="C13" t="n">
-        <v>522.4573464085599</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="D13" t="n">
-        <v>372.3407069962242</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="E13" t="n">
-        <v>224.427613413831</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>77.53766591592068</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592068</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592068</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592068</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758647</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
         <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344807</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5221,28 +5221,28 @@
         <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742807</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742807</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1934.22489635812</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1645.133203307571</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1390.448715101684</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.031545064724</v>
+        <v>814.5429355999227</v>
       </c>
       <c r="X13" t="n">
-        <v>873.0419941667064</v>
+        <v>586.5533847019053</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.0419941667064</v>
+        <v>556.1927176564066</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>700.7543264856226</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856226</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D16" t="n">
-        <v>550.6376870732869</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5440,10 +5440,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y16" t="n">
-        <v>882.4027913158624</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="17">
@@ -5507,31 +5507,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257311</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133953</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310022</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,49 +5753,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637304</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444888</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684175</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.6442739835329</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835329</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038342</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876698</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,13 +6145,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614397</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179096</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400721</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400721</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E28" t="n">
-        <v>365.940507157679</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="F28" t="n">
-        <v>219.0505596597687</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797723</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="29">
@@ -6458,52 +6458,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703117</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,34 +6716,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400719</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.917417812165</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>261.012762333092</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,22 +6947,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="38">
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7312,49 +7312,49 @@
         <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474264</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>113.9333885650333</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9333885650336</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
         <v>2264.108249235165</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,40 +7658,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797189</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7816,10 +7816,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
   </sheetData>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49.87305750948292</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>162.4897177271287</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927377</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905243</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>17.57572757906425</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>188.527592977051</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864991</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>118.6564717779738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>73.62417772602083</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459301</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>264.0775198009056</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>136.2749052347508</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.26526345295125</v>
       </c>
       <c r="G28" t="n">
-        <v>41.54258064659001</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194163</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393004</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823103</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>144.59566540674</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>145.6085800303777</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393125</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>966394.7287519984</v>
+        <v>966394.7287519986</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1063319.290792292</v>
+        <v>1063319.290792291</v>
       </c>
     </row>
     <row r="11">
@@ -26317,16 +26317,16 @@
         <v>369468.7964389276</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
-        <v>329665.1599234784</v>
+        <v>329665.1599234785</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="H2" t="n">
         <v>363215.9698605029</v>
@@ -26335,25 +26335,25 @@
         <v>363215.9698605028</v>
       </c>
       <c r="J2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="K2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="M2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="N2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="O2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="O2" t="n">
-        <v>363215.9698605026</v>
-      </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861775</v>
+        <v>392510.2442861777</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603263987</v>
+        <v>12262.856032643</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674518</v>
+        <v>395943.9567674493</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704296</v>
+        <v>189308.2687704291</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854464</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487781</v>
+        <v>91259.95686487785</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949042</v>
+        <v>3074.447349949793</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931124</v>
+        <v>103409.2608931118</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202374</v>
+        <v>49839.57413202363</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607427</v>
+        <v>170817.8827607418</v>
       </c>
       <c r="E4" t="n">
         <v>14721.27748222082</v>
@@ -26433,31 +26433,31 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186737</v>
       </c>
       <c r="J4" t="n">
+        <v>14826.69604186737</v>
+      </c>
+      <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="K4" t="n">
-        <v>14826.69604186734</v>
-      </c>
       <c r="L4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404145</v>
+        <v>86153.7544440417</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738563</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-557410.4713276613</v>
       </c>
       <c r="C6" t="n">
-        <v>-282443.5197920199</v>
+        <v>-282443.51979202</v>
       </c>
       <c r="D6" t="n">
-        <v>100234.3032015038</v>
+        <v>100234.303201501</v>
       </c>
       <c r="E6" t="n">
-        <v>-166137.5593935799</v>
+        <v>-166358.690707552</v>
       </c>
       <c r="F6" t="n">
-        <v>57958.47522429867</v>
+        <v>57923.73729886336</v>
       </c>
       <c r="G6" t="n">
-        <v>247266.7439947281</v>
+        <v>247232.0060692925</v>
       </c>
       <c r="H6" t="n">
-        <v>247266.7439947287</v>
+        <v>247232.0060692927</v>
       </c>
       <c r="I6" t="n">
-        <v>247266.7439947279</v>
+        <v>247232.0060692925</v>
       </c>
       <c r="J6" t="n">
-        <v>198201.7992661836</v>
+        <v>198167.061340748</v>
       </c>
       <c r="K6" t="n">
-        <v>156006.7871298504</v>
+        <v>155972.0492044147</v>
       </c>
       <c r="L6" t="n">
-        <v>244192.2966447794</v>
+        <v>244157.5587193425</v>
       </c>
       <c r="M6" t="n">
-        <v>143857.4831016159</v>
+        <v>143822.7451761808</v>
       </c>
       <c r="N6" t="n">
-        <v>197427.1698627045</v>
+        <v>197392.4319372689</v>
       </c>
       <c r="O6" t="n">
-        <v>247266.7439947282</v>
+        <v>247232.0060692925</v>
       </c>
       <c r="P6" t="n">
-        <v>247266.7439947284</v>
+        <v>247232.0060692927</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573191</v>
+        <v>863.6234498573216</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261633</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426299</v>
+        <v>554.2625532426331</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490086</v>
+        <v>969.2208239490091</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247794</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319634963</v>
+        <v>9.912785319637464</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576308</v>
+        <v>338.6177873576286</v>
       </c>
       <c r="F3" t="n">
-        <v>165.734263126724</v>
+        <v>165.7342631267236</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598433</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646658</v>
+        <v>12.14759651646977</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063787</v>
+        <v>414.958270706376</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506398</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598435</v>
+        <v>354.5893695598437</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646658</v>
+        <v>12.14759651646954</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063787</v>
+        <v>414.9582707063762</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506398</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598433</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646658</v>
+        <v>12.14759651646977</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063787</v>
+        <v>414.958270706376</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506398</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>244.7725365789888</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>305.0231662383343</v>
       </c>
     </row>
     <row r="3">
@@ -27473,13 +27473,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>82.38589573985809</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681227</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098435</v>
+        <v>134.0922706583945</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,19 +27576,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>154.5643095410617</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>366.3536163019591</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
         <v>208.0722578696039</v>
@@ -27673,10 +27673,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.04277599846347</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27695,19 +27695,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>13.69009742598945</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>20.40835437643689</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27819,13 +27819,13 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>82.99937639149749</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>232.9275588330286</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9186869163651</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151425</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731854</v>
+        <v>129.9052178731852</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731749</v>
+        <v>190.9577900164506</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679046626562</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>100.6870800901661</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>9.442139183871504</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.56536036433985</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,22 +27980,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.1789700647269</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>21.18581587736693</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6165999743401</v>
+        <v>108.6165999743399</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332447</v>
+        <v>16.89051046332416</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.09786070099028</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313613</v>
+        <v>107.2691031313611</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930955</v>
+        <v>196.8761692930954</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2914415359382</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>272.849427103401</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>46.51677388260478</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-2.556569233283702e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753039</v>
+        <v>3.471853064753049</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940207</v>
+        <v>35.55611519940217</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788917</v>
+        <v>133.8486152788921</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545835</v>
+        <v>294.6691890545844</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855797</v>
+        <v>441.632729285581</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160157</v>
+        <v>547.8844525160173</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563175</v>
+        <v>609.6270194563192</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765471</v>
+        <v>619.491421976549</v>
       </c>
       <c r="O8" t="n">
-        <v>584.968183063909</v>
+        <v>584.9681830639107</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278183</v>
+        <v>499.2568105278198</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.92107264635</v>
+        <v>374.9210726463511</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787933</v>
+        <v>218.0887900787939</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171305995</v>
+        <v>79.11485171306018</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095644</v>
+        <v>15.19803679095648</v>
       </c>
       <c r="U8" t="n">
-        <v>0.277748245180243</v>
+        <v>0.2777482451802439</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296875</v>
+        <v>1.85760515629688</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213035</v>
+        <v>17.9405550621304</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963565996</v>
+        <v>63.95701963566015</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148728</v>
+        <v>175.5029503148733</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867634</v>
+        <v>299.9624957867642</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564772</v>
+        <v>403.3365932564784</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722389</v>
+        <v>470.6747801722402</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668789</v>
+        <v>483.1321410668804</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510376</v>
+        <v>441.9715215510389</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423393</v>
+        <v>354.7211109423403</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230888</v>
+        <v>237.1216687230895</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111341</v>
+        <v>115.3344675111344</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911079</v>
+        <v>34.50420103911089</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442226</v>
+        <v>7.487452362442248</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458471</v>
+        <v>0.1222108655458475</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037788</v>
+        <v>1.557353762037793</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066326</v>
+        <v>13.8462907206633</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291823</v>
+        <v>46.83387495291836</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760716</v>
+        <v>110.1049109760719</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258448</v>
+        <v>180.9361916258453</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306</v>
+        <v>231.5360311306006</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801598</v>
+        <v>244.1222810801605</v>
       </c>
       <c r="N10" t="n">
-        <v>238.317598876201</v>
+        <v>238.3175988762017</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833049</v>
+        <v>220.1248753833056</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377339</v>
+        <v>188.3548586377344</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284552</v>
+        <v>130.4071409284556</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580818</v>
+        <v>70.02428824580838</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387672</v>
+        <v>27.1404287438768</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343276</v>
+        <v>6.654147892343295</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842491</v>
+        <v>0.08494656883842516</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869142</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639236</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
@@ -31762,28 +31762,28 @@
         <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975123</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544653</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954555</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180163</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.32813369568</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620354</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825967</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696627</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495313</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469206</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
         <v>244.3158348193136</v>
@@ -31844,28 +31844,28 @@
         <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>171.3336650206128</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821476</v>
+        <v>250.1980451314306</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340502</v>
+        <v>672.5632370340503</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924471</v>
+        <v>615.2639659924472</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383443</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047538</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.0329399962765</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31908,22 +31908,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798451</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329025</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.318904810054</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
         <v>339.8400926770062</v>
@@ -31932,25 +31932,25 @@
         <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806237</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
         <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811706</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
         <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837748</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278972</v>
+        <v>113.6232845278981</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782405992</v>
+        <v>221.5428782406005</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460285</v>
+        <v>312.1180375460301</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290448</v>
+        <v>379.2807862290465</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799562</v>
+        <v>390.078358379958</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422223</v>
+        <v>354.869971642224</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725488</v>
+        <v>268.0238147725502</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719005</v>
+        <v>152.6153827719016</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661143</v>
+        <v>2.503252264661796</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820608</v>
+        <v>48.66532364820659</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124044</v>
+        <v>162.1210568124052</v>
       </c>
       <c r="L9" t="n">
-        <v>264.782213476603</v>
+        <v>264.7822134766042</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502205</v>
+        <v>328.5407462502219</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835457</v>
+        <v>351.790428983547</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065932</v>
+        <v>299.3752771065945</v>
       </c>
       <c r="P9" t="n">
-        <v>220.746703528009</v>
+        <v>220.7467035280101</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706733</v>
+        <v>97.13989463706801</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530945</v>
+        <v>51.92293345530996</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936167</v>
+        <v>96.65135484936235</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325548</v>
+        <v>105.1964971325555</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109678</v>
+        <v>110.6320544109685</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146214</v>
+        <v>81.66833693146279</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858627</v>
+        <v>50.62685458858681</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525318</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681828</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214254</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739932</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067659</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081472</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553062</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>32.77928524073863</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601292</v>
+        <v>108.0640112094123</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507169</v>
+        <v>541.221524950717</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480026</v>
+        <v>472.6677215480028</v>
       </c>
       <c r="P12" t="n">
-        <v>359.829167924014</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187323</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655342</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.9167231918627</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070197</v>
@@ -35580,13 +35580,13 @@
         <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946634</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
         <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776306</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.402257299898</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306626</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191295</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
